--- a/data/amiris/amiris_data_structure_template_sample.xlsx
+++ b/data/amiris/amiris_data_structure_template_sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="O:\ESY\06_Projekte-ST\TradeRES\09_WPs\WP4\AMIRIS-EMLab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isanchezjimene\Documents\TraderesCode\toolbox-amiris-emlab\data\amiris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B107E1-0B10-448C-A0FB-DC270280E473}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77DDA130-F1CB-4EB9-BB63-AB8F4E744693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="3990" xr2:uid="{AA05867F-F201-4DBD-A170-E7B78D3B3F3C}"/>
+    <workbookView xWindow="-5550" yWindow="-21720" windowWidth="37710" windowHeight="21840" activeTab="3" xr2:uid="{AA05867F-F201-4DBD-A170-E7B78D3B3F3C}"/>
   </bookViews>
   <sheets>
     <sheet name="scenario_skeleton" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,16 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -315,13 +325,13 @@
     <t>identifier</t>
   </si>
   <si>
-    <t>plant_A</t>
-  </si>
-  <si>
     <t>plant_B</t>
   </si>
   <si>
     <t>PHES</t>
+  </si>
+  <si>
+    <t>plant_2023_Lignite</t>
   </si>
 </sst>
 </file>
@@ -387,7 +397,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -403,7 +413,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -701,17 +711,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE132A4-2422-4EAD-9BCE-CF3C7F40105B}">
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -725,7 +735,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
@@ -739,7 +749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -753,7 +763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
@@ -767,7 +777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>40</v>
       </c>
@@ -781,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>40</v>
       </c>
@@ -793,7 +803,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>42</v>
       </c>
@@ -807,7 +817,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -821,7 +831,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>42</v>
       </c>
@@ -835,7 +845,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -849,7 +859,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>44</v>
       </c>
@@ -863,7 +873,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>44</v>
       </c>
@@ -877,7 +887,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>44</v>
       </c>
@@ -891,7 +901,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -905,7 +915,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -919,7 +929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -933,7 +943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -947,7 +957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -961,7 +971,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -975,7 +985,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -989,7 +999,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>31</v>
       </c>
@@ -1003,7 +1013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>31</v>
       </c>
@@ -1017,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>31</v>
       </c>
@@ -1031,7 +1041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>31</v>
       </c>
@@ -1045,7 +1055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1059,7 +1069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>68</v>
       </c>
@@ -1073,7 +1083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1087,7 +1097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>68</v>
       </c>
@@ -1115,14 +1125,14 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>18</v>
       </c>
@@ -1142,7 +1152,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1159,7 +1169,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1176,7 +1186,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1193,7 +1203,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>68</v>
       </c>
@@ -1220,12 +1230,12 @@
       <selection activeCell="A2" sqref="A2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1236,7 +1246,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -1244,7 +1254,7 @@
         <v>43831</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -1252,7 +1262,7 @@
         <v>44196</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>59</v>
       </c>
@@ -1263,7 +1273,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -1274,7 +1284,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -1285,7 +1295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>62</v>
       </c>
@@ -1296,7 +1306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>63</v>
       </c>
@@ -1307,7 +1317,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>64</v>
       </c>
@@ -1318,7 +1328,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>65</v>
       </c>
@@ -1338,16 +1348,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58BAE2DE-2680-429D-B25B-A2D097FBAF17}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1358,18 +1369,18 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1380,7 +1391,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1391,7 +1402,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1402,7 +1413,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -1413,7 +1424,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1424,7 +1435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1449,12 +1460,12 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1468,7 +1479,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>93</v>
       </c>
@@ -1482,7 +1493,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1496,7 +1507,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1510,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1524,7 +1535,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1538,7 +1549,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>85</v>
       </c>
@@ -1546,7 +1557,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1554,7 +1565,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1575,12 +1586,12 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -1588,15 +1599,15 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>93</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1604,7 +1615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -1620,7 +1631,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -1628,7 +1639,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1648,7 +1659,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
